--- a/tests/fixtures/translations.xlsx
+++ b/tests/fixtures/translations.xlsx
@@ -37,7 +37,7 @@
     <t xml:space="preserve">kočka</t>
   </si>
   <si>
-    <t xml:space="preserve">cat</t>
+    <t xml:space="preserve">cat new</t>
   </si>
   <si>
     <t xml:space="preserve">Dog</t>
@@ -147,7 +147,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
